--- a/xlsx/整合规范文档_intext.xlsx
+++ b/xlsx/整合规范文档_intext.xlsx
@@ -29,7 +29,7 @@
     <t>规范控制</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_整合规范文档</t>
+    <t>政策_政策_维基百科_整合规范文档</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E4%BD%9C%E5%85%B1%E7%94%A8%E6%8E%88%E6%AC%8A%E6%A2%9D%E6%AC%BE</t>
   </si>
   <si>
-    <t>創作共用授權條款</t>
+    <t>创作共用授权条款</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E4%B9%A6%E9%A6%86%E5%AD%A6</t>

--- a/xlsx/整合规范文档_intext.xlsx
+++ b/xlsx/整合规范文档_intext.xlsx
@@ -29,7 +29,7 @@
     <t>规范控制</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_整合规范文档</t>
+    <t>体育运动_体育运动_体育_整合规范文档</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
